--- a/Source_Data_and_STables/SuppTable6_SuperclusterGrouping.xlsx
+++ b/Source_Data_and_STables/SuppTable6_SuperclusterGrouping.xlsx
@@ -170,10 +170,10 @@
     <t xml:space="preserve">B_cells</t>
   </si>
   <si>
-    <t xml:space="preserve">Β_Plasma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οther</t>
+    <t xml:space="preserve">B_Plasma cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
   </si>
   <si>
     <t xml:space="preserve">ECs</t>
@@ -421,10 +421,10 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="B3 B10 B30 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.45"/>
@@ -697,10 +697,10 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="3" sqref="B3 B10 B30 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
